--- a/Administration/Management/timecard_totals/9_18_15/FlyNet_Timesheet_9_18_15.xlsx
+++ b/Administration/Management/timecard_totals/9_18_15/FlyNet_Timesheet_9_18_15.xlsx
@@ -988,7 +988,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1242,14 +1242,22 @@
       <c r="A13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="44">
+        <v>1</v>
+      </c>
+      <c r="C13" s="44">
+        <v>9.5</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0</v>
+      </c>
+      <c r="E13" s="44">
+        <v>4</v>
+      </c>
       <c r="F13" s="42"/>
       <c r="G13" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -1497,11 +1505,11 @@
       <c r="A24" s="37"/>
       <c r="B24" s="35">
         <f>SUM(B8:B21)</f>
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="C24" s="35">
         <f>SUM(C8:C21)</f>
-        <v>46</v>
+        <v>55.5</v>
       </c>
       <c r="D24" s="35">
         <f>SUM(D8:D21)</f>
@@ -1509,12 +1517,12 @@
       </c>
       <c r="E24" s="35">
         <f>SUM(E8:E21)</f>
-        <v>45.5</v>
+        <v>49.5</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="47">
         <f>SUM(G8:G21)</f>
-        <v>123.5</v>
+        <v>138</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
